--- a/t/etc/data/basic.xlsx
+++ b/t/etc/data/basic.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="60" windowWidth="25000" windowHeight="17300" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="24800" windowHeight="16660" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dog Roster" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="110304" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:ArchID Flags="0"/>
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -57,9 +57,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -414,12 +418,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
@@ -490,9 +491,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -503,16 +503,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData/>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -523,16 +520,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData/>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
